--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.9700993601452</v>
+        <v>5.794671333333334</v>
       </c>
       <c r="H2">
-        <v>3.9700993601452</v>
+        <v>17.384014</v>
       </c>
       <c r="I2">
-        <v>0.02950605080816633</v>
+        <v>0.040241067224651</v>
       </c>
       <c r="J2">
-        <v>0.02950605080816633</v>
+        <v>0.04024106722465099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N2">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O2">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P2">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q2">
-        <v>9.641608401151782</v>
+        <v>39.84208752721977</v>
       </c>
       <c r="R2">
-        <v>9.641608401151782</v>
+        <v>358.578787744978</v>
       </c>
       <c r="S2">
-        <v>0.01046828790796586</v>
+        <v>0.02414300379688513</v>
       </c>
       <c r="T2">
-        <v>0.01046828790796586</v>
+        <v>0.02414300379688512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.9700993601452</v>
+        <v>5.794671333333334</v>
       </c>
       <c r="H3">
-        <v>3.9700993601452</v>
+        <v>17.384014</v>
       </c>
       <c r="I3">
-        <v>0.02950605080816633</v>
+        <v>0.040241067224651</v>
       </c>
       <c r="J3">
-        <v>0.02950605080816633</v>
+        <v>0.04024106722465099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N3">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O3">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P3">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q3">
-        <v>3.099228836975376</v>
+        <v>4.614488006887334</v>
       </c>
       <c r="R3">
-        <v>3.099228836975376</v>
+        <v>41.530392061986</v>
       </c>
       <c r="S3">
-        <v>0.003364959289806121</v>
+        <v>0.002796229022760142</v>
       </c>
       <c r="T3">
-        <v>0.003364959289806121</v>
+        <v>0.002796229022760141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.9700993601452</v>
+        <v>5.794671333333334</v>
       </c>
       <c r="H4">
-        <v>3.9700993601452</v>
+        <v>17.384014</v>
       </c>
       <c r="I4">
-        <v>0.02950605080816633</v>
+        <v>0.040241067224651</v>
       </c>
       <c r="J4">
-        <v>0.02950605080816633</v>
+        <v>0.04024106722465099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N4">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O4">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P4">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q4">
-        <v>2.529586400369214</v>
+        <v>4.169669719769556</v>
       </c>
       <c r="R4">
-        <v>2.529586400369214</v>
+        <v>37.527027477926</v>
       </c>
       <c r="S4">
-        <v>0.00274647523788423</v>
+        <v>0.002526683668554706</v>
       </c>
       <c r="T4">
-        <v>0.00274647523788423</v>
+        <v>0.002526683668554705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.9700993601452</v>
+        <v>5.794671333333334</v>
       </c>
       <c r="H5">
-        <v>3.9700993601452</v>
+        <v>17.384014</v>
       </c>
       <c r="I5">
-        <v>0.02950605080816633</v>
+        <v>0.040241067224651</v>
       </c>
       <c r="J5">
-        <v>0.02950605080816633</v>
+        <v>0.04024106722465099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N5">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O5">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P5">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q5">
-        <v>3.21652542363234</v>
+        <v>4.983782410960668</v>
       </c>
       <c r="R5">
-        <v>3.21652542363234</v>
+        <v>44.85404169864601</v>
       </c>
       <c r="S5">
-        <v>0.003492312983158786</v>
+        <v>0.003020009370454516</v>
       </c>
       <c r="T5">
-        <v>0.003492312983158786</v>
+        <v>0.003020009370454515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.9700993601452</v>
+        <v>5.794671333333334</v>
       </c>
       <c r="H6">
-        <v>3.9700993601452</v>
+        <v>17.384014</v>
       </c>
       <c r="I6">
-        <v>0.02950605080816633</v>
+        <v>0.040241067224651</v>
       </c>
       <c r="J6">
-        <v>0.02950605080816633</v>
+        <v>0.04024106722465099</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N6">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O6">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P6">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q6">
-        <v>1.074867005469136</v>
+        <v>1.632571385882222</v>
       </c>
       <c r="R6">
-        <v>1.074867005469136</v>
+        <v>14.69314247294</v>
       </c>
       <c r="S6">
-        <v>0.001167026994653701</v>
+        <v>0.0009892849399799244</v>
       </c>
       <c r="T6">
-        <v>0.001167026994653701</v>
+        <v>0.000989284939979924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.9700993601452</v>
+        <v>5.794671333333334</v>
       </c>
       <c r="H7">
-        <v>3.9700993601452</v>
+        <v>17.384014</v>
       </c>
       <c r="I7">
-        <v>0.02950605080816633</v>
+        <v>0.040241067224651</v>
       </c>
       <c r="J7">
-        <v>0.02950605080816633</v>
+        <v>0.04024106722465099</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N7">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O7">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P7">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q7">
-        <v>7.614145260361803</v>
+        <v>11.16538133323467</v>
       </c>
       <c r="R7">
-        <v>7.614145260361803</v>
+        <v>100.488431999112</v>
       </c>
       <c r="S7">
-        <v>0.008266988394697639</v>
+        <v>0.006765856426016579</v>
       </c>
       <c r="T7">
-        <v>0.008266988394697639</v>
+        <v>0.006765856426016577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.0968904638145</v>
+        <v>46.285</v>
       </c>
       <c r="H8">
-        <v>46.0968904638145</v>
+        <v>138.855</v>
       </c>
       <c r="I8">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="J8">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N8">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O8">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P8">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q8">
-        <v>111.9488773567199</v>
+        <v>318.2391053983333</v>
       </c>
       <c r="R8">
-        <v>111.9488773567199</v>
+        <v>2864.151948584999</v>
       </c>
       <c r="S8">
-        <v>0.1215474670184394</v>
+        <v>0.1928425041659817</v>
       </c>
       <c r="T8">
-        <v>0.1215474670184394</v>
+        <v>0.1928425041659816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.0968904638145</v>
+        <v>46.285</v>
       </c>
       <c r="H9">
-        <v>46.0968904638145</v>
+        <v>138.855</v>
       </c>
       <c r="I9">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="J9">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N9">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O9">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P9">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q9">
-        <v>35.9851981677164</v>
+        <v>36.858272905</v>
       </c>
       <c r="R9">
-        <v>35.9851981677164</v>
+        <v>331.724456145</v>
       </c>
       <c r="S9">
-        <v>0.03907059892619784</v>
+        <v>0.02233490958735764</v>
       </c>
       <c r="T9">
-        <v>0.03907059892619784</v>
+        <v>0.02233490958735763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.0968904638145</v>
+        <v>46.285</v>
       </c>
       <c r="H10">
-        <v>46.0968904638145</v>
+        <v>138.855</v>
       </c>
       <c r="I10">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="J10">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N10">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O10">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P10">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q10">
-        <v>29.37107025258677</v>
+        <v>33.30528202166666</v>
       </c>
       <c r="R10">
-        <v>29.37107025258677</v>
+        <v>299.747538195</v>
       </c>
       <c r="S10">
-        <v>0.03188937019392327</v>
+        <v>0.02018191315292105</v>
       </c>
       <c r="T10">
-        <v>0.03188937019392327</v>
+        <v>0.02018191315292104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.0968904638145</v>
+        <v>46.285</v>
       </c>
       <c r="H11">
-        <v>46.0968904638145</v>
+        <v>138.855</v>
       </c>
       <c r="I11">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="J11">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N11">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O11">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P11">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q11">
-        <v>37.3471308087946</v>
+        <v>39.808015955</v>
       </c>
       <c r="R11">
-        <v>37.3471308087946</v>
+        <v>358.272143595</v>
       </c>
       <c r="S11">
-        <v>0.04054930480232113</v>
+        <v>0.02412235753689923</v>
       </c>
       <c r="T11">
-        <v>0.04054930480232113</v>
+        <v>0.02412235753689922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.0968904638145</v>
+        <v>46.285</v>
       </c>
       <c r="H12">
-        <v>46.0968904638145</v>
+        <v>138.855</v>
       </c>
       <c r="I12">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="J12">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N12">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O12">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P12">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q12">
-        <v>12.48029888412338</v>
+        <v>13.04018161666666</v>
       </c>
       <c r="R12">
-        <v>12.48029888412338</v>
+        <v>117.36163455</v>
       </c>
       <c r="S12">
-        <v>0.01355037006905005</v>
+        <v>0.007901924166703524</v>
       </c>
       <c r="T12">
-        <v>0.01355037006905005</v>
+        <v>0.00790192416670352</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.0968904638145</v>
+        <v>46.285</v>
       </c>
       <c r="H13">
-        <v>46.0968904638145</v>
+        <v>138.855</v>
       </c>
       <c r="I13">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="J13">
-        <v>0.3425952523450305</v>
+        <v>0.3214259600503608</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N13">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O13">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P13">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q13">
-        <v>88.40796871885684</v>
+        <v>89.18360426</v>
       </c>
       <c r="R13">
-        <v>88.40796871885684</v>
+        <v>802.65243834</v>
       </c>
       <c r="S13">
-        <v>0.09598814133509878</v>
+        <v>0.05404235144049768</v>
       </c>
       <c r="T13">
-        <v>0.09598814133509878</v>
+        <v>0.05404235144049767</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.3928531019038</v>
+        <v>41.77882066666667</v>
       </c>
       <c r="H14">
-        <v>36.3928531019038</v>
+        <v>125.336462</v>
       </c>
       <c r="I14">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="J14">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N14">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O14">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P14">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q14">
-        <v>88.38207973625256</v>
+        <v>287.2562280124749</v>
       </c>
       <c r="R14">
-        <v>88.38207973625256</v>
+        <v>2585.306052112274</v>
       </c>
       <c r="S14">
-        <v>0.09596003260963826</v>
+        <v>0.1740678923725066</v>
       </c>
       <c r="T14">
-        <v>0.09596003260963826</v>
+        <v>0.1740678923725066</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.3928531019038</v>
+        <v>41.77882066666667</v>
       </c>
       <c r="H15">
-        <v>36.3928531019038</v>
+        <v>125.336462</v>
       </c>
       <c r="I15">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="J15">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N15">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O15">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P15">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q15">
-        <v>28.40981284385384</v>
+        <v>33.26985359794867</v>
       </c>
       <c r="R15">
-        <v>28.40981284385384</v>
+        <v>299.428682381538</v>
       </c>
       <c r="S15">
-        <v>0.03084569377712549</v>
+        <v>0.02016044468524206</v>
       </c>
       <c r="T15">
-        <v>0.03084569377712549</v>
+        <v>0.02016044468524206</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.3928531019038</v>
+        <v>41.77882066666667</v>
       </c>
       <c r="H16">
-        <v>36.3928531019038</v>
+        <v>125.336462</v>
       </c>
       <c r="I16">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="J16">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N16">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O16">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P16">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q16">
-        <v>23.18805095947108</v>
+        <v>30.06277206083978</v>
       </c>
       <c r="R16">
-        <v>23.18805095947108</v>
+        <v>270.564948547558</v>
       </c>
       <c r="S16">
-        <v>0.02517621369473269</v>
+        <v>0.0182170580172006</v>
       </c>
       <c r="T16">
-        <v>0.02517621369473269</v>
+        <v>0.01821705801720059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.3928531019038</v>
+        <v>41.77882066666667</v>
       </c>
       <c r="H17">
-        <v>36.3928531019038</v>
+        <v>125.336462</v>
       </c>
       <c r="I17">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="J17">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N17">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O17">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P17">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q17">
-        <v>29.48503969847984</v>
+        <v>35.93241783903534</v>
       </c>
       <c r="R17">
-        <v>29.48503969847984</v>
+        <v>323.391760551318</v>
       </c>
       <c r="S17">
-        <v>0.03201311147470143</v>
+        <v>0.02177387165585672</v>
       </c>
       <c r="T17">
-        <v>0.03201311147470143</v>
+        <v>0.02177387165585671</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.3928531019038</v>
+        <v>41.77882066666667</v>
       </c>
       <c r="H18">
-        <v>36.3928531019038</v>
+        <v>125.336462</v>
       </c>
       <c r="I18">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="J18">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N18">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O18">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P18">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q18">
-        <v>9.853022175417507</v>
+        <v>11.77062567189111</v>
       </c>
       <c r="R18">
-        <v>9.853022175417507</v>
+        <v>105.93563104702</v>
       </c>
       <c r="S18">
-        <v>0.01069782847470978</v>
+        <v>0.007132614727931424</v>
       </c>
       <c r="T18">
-        <v>0.01069782847470978</v>
+        <v>0.007132614727931421</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.3928531019038</v>
+        <v>41.77882066666667</v>
       </c>
       <c r="H19">
-        <v>36.3928531019038</v>
+        <v>125.336462</v>
       </c>
       <c r="I19">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="J19">
-        <v>0.2704741809382913</v>
+        <v>0.2901328193271079</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N19">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O19">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P19">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q19">
-        <v>69.79686018406593</v>
+        <v>80.50093569807734</v>
       </c>
       <c r="R19">
-        <v>69.79686018406593</v>
+        <v>724.508421282696</v>
       </c>
       <c r="S19">
-        <v>0.07578130090738364</v>
+        <v>0.04878093786837049</v>
       </c>
       <c r="T19">
-        <v>0.07578130090738364</v>
+        <v>0.04878093786837047</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.1519760707254</v>
+        <v>25.88134733333333</v>
       </c>
       <c r="H20">
-        <v>25.1519760707254</v>
+        <v>77.644042</v>
       </c>
       <c r="I20">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="J20">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N20">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O20">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P20">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q20">
-        <v>61.08298100131311</v>
+        <v>177.9508873687704</v>
       </c>
       <c r="R20">
-        <v>61.08298100131311</v>
+        <v>1601.557986318934</v>
       </c>
       <c r="S20">
-        <v>0.06632028649101408</v>
+        <v>0.1078324258604203</v>
       </c>
       <c r="T20">
-        <v>0.06632028649101408</v>
+        <v>0.1078324258604203</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.1519760707254</v>
+        <v>25.88134733333333</v>
       </c>
       <c r="H21">
-        <v>25.1519760707254</v>
+        <v>77.644042</v>
       </c>
       <c r="I21">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="J21">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N21">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O21">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P21">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q21">
-        <v>19.6347049466429</v>
+        <v>20.61017096599534</v>
       </c>
       <c r="R21">
-        <v>19.6347049466429</v>
+        <v>185.491538693958</v>
       </c>
       <c r="S21">
-        <v>0.02131820084550057</v>
+        <v>0.01248909047615858</v>
       </c>
       <c r="T21">
-        <v>0.02131820084550057</v>
+        <v>0.01248909047615857</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.1519760707254</v>
+        <v>25.88134733333333</v>
       </c>
       <c r="H22">
-        <v>25.1519760707254</v>
+        <v>77.644042</v>
       </c>
       <c r="I22">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="J22">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N22">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O22">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P22">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q22">
-        <v>16.02581971867624</v>
+        <v>18.62343247353089</v>
       </c>
       <c r="R22">
-        <v>16.02581971867624</v>
+        <v>167.610892261778</v>
       </c>
       <c r="S22">
-        <v>0.01739988680272665</v>
+        <v>0.01128519183670559</v>
       </c>
       <c r="T22">
-        <v>0.01739988680272665</v>
+        <v>0.01128519183670558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.1519760707254</v>
+        <v>25.88134733333333</v>
       </c>
       <c r="H23">
-        <v>25.1519760707254</v>
+        <v>77.644042</v>
       </c>
       <c r="I23">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="J23">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N23">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O23">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P23">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q23">
-        <v>20.37782008637729</v>
+        <v>22.25958923154867</v>
       </c>
       <c r="R23">
-        <v>20.37782008637729</v>
+        <v>200.336303083938</v>
       </c>
       <c r="S23">
-        <v>0.02212503129409861</v>
+        <v>0.01348858407499925</v>
       </c>
       <c r="T23">
-        <v>0.02212503129409861</v>
+        <v>0.01348858407499924</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.1519760707254</v>
+        <v>25.88134733333333</v>
       </c>
       <c r="H24">
-        <v>25.1519760707254</v>
+        <v>77.644042</v>
       </c>
       <c r="I24">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="J24">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N24">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O24">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P24">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q24">
-        <v>6.809660602495153</v>
+        <v>7.291724526535555</v>
       </c>
       <c r="R24">
-        <v>6.809660602495153</v>
+        <v>65.62552073881999</v>
       </c>
       <c r="S24">
-        <v>0.00739352655454621</v>
+        <v>0.004418546914985729</v>
       </c>
       <c r="T24">
-        <v>0.00739352655454621</v>
+        <v>0.004418546914985728</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.1519760707254</v>
+        <v>25.88134733333333</v>
       </c>
       <c r="H25">
-        <v>25.1519760707254</v>
+        <v>77.644042</v>
       </c>
       <c r="I25">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="J25">
-        <v>0.186931211676643</v>
+        <v>0.179732892168381</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N25">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O25">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P25">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q25">
-        <v>48.2382887718566</v>
+        <v>49.86911177037067</v>
       </c>
       <c r="R25">
-        <v>48.2382887718566</v>
+        <v>448.822005933336</v>
       </c>
       <c r="S25">
-        <v>0.05237427968875692</v>
+        <v>0.03021905300511154</v>
       </c>
       <c r="T25">
-        <v>0.05237427968875692</v>
+        <v>0.03021905300511153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.7364052455307</v>
+        <v>15.96982666666667</v>
       </c>
       <c r="H26">
-        <v>14.7364052455307</v>
+        <v>47.90948</v>
       </c>
       <c r="I26">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="J26">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N26">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O26">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P26">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q26">
-        <v>35.78818455890976</v>
+        <v>109.8028162853289</v>
       </c>
       <c r="R26">
-        <v>35.78818455890976</v>
+        <v>988.2253465679599</v>
       </c>
       <c r="S26">
-        <v>0.03885669320705154</v>
+        <v>0.06653692050333095</v>
       </c>
       <c r="T26">
-        <v>0.03885669320705154</v>
+        <v>0.06653692050333093</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.7364052455307</v>
+        <v>15.96982666666667</v>
       </c>
       <c r="H27">
-        <v>14.7364052455307</v>
+        <v>47.90948</v>
       </c>
       <c r="I27">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="J27">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N27">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O27">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P27">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q27">
-        <v>11.50386626309362</v>
+        <v>12.71729997894667</v>
       </c>
       <c r="R27">
-        <v>11.50386626309362</v>
+        <v>114.45569981052</v>
       </c>
       <c r="S27">
-        <v>0.01249021730465773</v>
+        <v>0.007706268439575956</v>
       </c>
       <c r="T27">
-        <v>0.01249021730465773</v>
+        <v>0.007706268439575953</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.7364052455307</v>
+        <v>15.96982666666667</v>
       </c>
       <c r="H28">
-        <v>14.7364052455307</v>
+        <v>47.90948</v>
       </c>
       <c r="I28">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="J28">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N28">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O28">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P28">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q28">
-        <v>9.389440141886185</v>
+        <v>11.49140285125778</v>
       </c>
       <c r="R28">
-        <v>9.389440141886185</v>
+        <v>103.42262566132</v>
       </c>
       <c r="S28">
-        <v>0.01019449853285211</v>
+        <v>0.006963414818059184</v>
       </c>
       <c r="T28">
-        <v>0.01019449853285211</v>
+        <v>0.006963414818059181</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.7364052455307</v>
+        <v>15.96982666666667</v>
       </c>
       <c r="H29">
-        <v>14.7364052455307</v>
+        <v>47.90948</v>
       </c>
       <c r="I29">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="J29">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N29">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O29">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P29">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q29">
-        <v>11.93925336001285</v>
+        <v>13.73505703241334</v>
       </c>
       <c r="R29">
-        <v>11.93925336001285</v>
+        <v>123.61551329172</v>
       </c>
       <c r="S29">
-        <v>0.0129629348526365</v>
+        <v>0.008322995973979497</v>
       </c>
       <c r="T29">
-        <v>0.0129629348526365</v>
+        <v>0.008322995973979496</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.7364052455307</v>
+        <v>15.96982666666667</v>
       </c>
       <c r="H30">
-        <v>14.7364052455307</v>
+        <v>47.90948</v>
       </c>
       <c r="I30">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="J30">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N30">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O30">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P30">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q30">
-        <v>3.989742910883708</v>
+        <v>4.499285732311111</v>
       </c>
       <c r="R30">
-        <v>3.989742910883708</v>
+        <v>40.49357159079999</v>
       </c>
       <c r="S30">
-        <v>0.004331826779534742</v>
+        <v>0.002726420206879113</v>
       </c>
       <c r="T30">
-        <v>0.004331826779534742</v>
+        <v>0.002726420206879111</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.7364052455307</v>
+        <v>15.96982666666667</v>
       </c>
       <c r="H31">
-        <v>14.7364052455307</v>
+        <v>47.90948</v>
       </c>
       <c r="I31">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="J31">
-        <v>0.1095219747569378</v>
+        <v>0.110902384534324</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N31">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O31">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P31">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q31">
-        <v>28.26254961813466</v>
+        <v>30.77123693509333</v>
       </c>
       <c r="R31">
-        <v>28.26254961813466</v>
+        <v>276.94113241584</v>
       </c>
       <c r="S31">
-        <v>0.03068580408020521</v>
+        <v>0.01864636459249934</v>
       </c>
       <c r="T31">
-        <v>0.03068580408020521</v>
+        <v>0.01864636459249933</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.20381682758544</v>
+        <v>8.289281666666668</v>
       </c>
       <c r="H32">
-        <v>8.20381682758544</v>
+        <v>24.867845</v>
       </c>
       <c r="I32">
-        <v>0.06097132947493105</v>
+        <v>0.05756487669517531</v>
       </c>
       <c r="J32">
-        <v>0.06097132947493105</v>
+        <v>0.0575648766951753</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N32">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O32">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P32">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q32">
-        <v>19.92342812384052</v>
+        <v>56.99413594025722</v>
       </c>
       <c r="R32">
-        <v>19.92342812384052</v>
+        <v>512.947223462315</v>
       </c>
       <c r="S32">
-        <v>0.02163167938755028</v>
+        <v>0.03453658494841013</v>
       </c>
       <c r="T32">
-        <v>0.02163167938755028</v>
+        <v>0.03453658494841012</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.20381682758544</v>
+        <v>8.289281666666668</v>
       </c>
       <c r="H33">
-        <v>8.20381682758544</v>
+        <v>24.867845</v>
       </c>
       <c r="I33">
-        <v>0.06097132947493105</v>
+        <v>0.05756487669517531</v>
       </c>
       <c r="J33">
-        <v>0.06097132947493105</v>
+        <v>0.0575648766951753</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N33">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O33">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P33">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q33">
-        <v>6.404249208610926</v>
+        <v>6.601028537461668</v>
       </c>
       <c r="R33">
-        <v>6.404249208610926</v>
+        <v>59.40925683715501</v>
       </c>
       <c r="S33">
-        <v>0.006953354851260392</v>
+        <v>0.004000007703773172</v>
       </c>
       <c r="T33">
-        <v>0.006953354851260392</v>
+        <v>0.004000007703773172</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.20381682758544</v>
+        <v>8.289281666666668</v>
       </c>
       <c r="H34">
-        <v>8.20381682758544</v>
+        <v>24.867845</v>
       </c>
       <c r="I34">
-        <v>0.06097132947493105</v>
+        <v>0.05756487669517531</v>
       </c>
       <c r="J34">
-        <v>0.06097132947493105</v>
+        <v>0.0575648766951753</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N34">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O34">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P34">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q34">
-        <v>5.227139574013396</v>
+        <v>5.964715645789445</v>
       </c>
       <c r="R34">
-        <v>5.227139574013396</v>
+        <v>53.68244081210501</v>
       </c>
       <c r="S34">
-        <v>0.005675318859595825</v>
+        <v>0.003614422873431291</v>
       </c>
       <c r="T34">
-        <v>0.005675318859595825</v>
+        <v>0.00361442287343129</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.20381682758544</v>
+        <v>8.289281666666668</v>
       </c>
       <c r="H35">
-        <v>8.20381682758544</v>
+        <v>24.867845</v>
       </c>
       <c r="I35">
-        <v>0.06097132947493105</v>
+        <v>0.05756487669517531</v>
       </c>
       <c r="J35">
-        <v>0.06097132947493105</v>
+        <v>0.0575648766951753</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N35">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O35">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P35">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q35">
-        <v>6.646630978975368</v>
+        <v>7.129304458078336</v>
       </c>
       <c r="R35">
-        <v>6.646630978975368</v>
+        <v>64.16374012270501</v>
       </c>
       <c r="S35">
-        <v>0.007216518635791855</v>
+        <v>0.004320125658148371</v>
       </c>
       <c r="T35">
-        <v>0.007216518635791855</v>
+        <v>0.004320125658148369</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.20381682758544</v>
+        <v>8.289281666666668</v>
       </c>
       <c r="H36">
-        <v>8.20381682758544</v>
+        <v>24.867845</v>
       </c>
       <c r="I36">
-        <v>0.06097132947493105</v>
+        <v>0.05756487669517531</v>
       </c>
       <c r="J36">
-        <v>0.06097132947493105</v>
+        <v>0.0575648766951753</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N36">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O36">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P36">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q36">
-        <v>2.221106130341677</v>
+        <v>2.335394585827778</v>
       </c>
       <c r="R36">
-        <v>2.221106130341677</v>
+        <v>21.01855127245</v>
       </c>
       <c r="S36">
-        <v>0.002411545613467048</v>
+        <v>0.001415172844905386</v>
       </c>
       <c r="T36">
-        <v>0.002411545613467048</v>
+        <v>0.001415172844905386</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.20381682758544</v>
+        <v>8.289281666666668</v>
       </c>
       <c r="H37">
-        <v>8.20381682758544</v>
+        <v>24.867845</v>
       </c>
       <c r="I37">
-        <v>0.06097132947493105</v>
+        <v>0.05756487669517531</v>
       </c>
       <c r="J37">
-        <v>0.06097132947493105</v>
+        <v>0.0575648766951753</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N37">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O37">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P37">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q37">
-        <v>15.73387649732563</v>
+        <v>15.97208632947333</v>
       </c>
       <c r="R37">
-        <v>15.73387649732563</v>
+        <v>143.74877696526</v>
       </c>
       <c r="S37">
-        <v>0.01708291212726565</v>
+        <v>0.009678562666506957</v>
       </c>
       <c r="T37">
-        <v>0.01708291212726565</v>
+        <v>0.009678562666506954</v>
       </c>
     </row>
   </sheetData>
